--- a/Örnek 3 - Eğer.xlsx
+++ b/Örnek 3 - Eğer.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaettin\Downloads\Excel Ders Örnekleri(1)\Excel1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5B8EC2-5FE4-48D4-BD6D-116CDB522563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>İLLER</t>
   </si>
@@ -110,12 +104,18 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>Kübra Çabuk</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -259,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,28 +471,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,23 +503,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>900</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="str">
+        <f>IF(B2&lt;500,"YAKIN","UZAK")</f>
+        <v>UZAK</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>800</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C11" si="0">IF(B3&lt;500,"YAKIN","UZAK")</f>
+        <v>UZAK</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
@@ -528,127 +534,157 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>700</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>UZAK</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>250</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>490</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>390</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>50</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>900</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>UZAK</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>350</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YAKIN</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <v>20215070019</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
